--- a/SuppXLS/Scen_CO2_PRICE_PROJ.xlsx
+++ b/SuppXLS/Scen_CO2_PRICE_PROJ.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/Prywatny238/Shared Documents/General/Wymiana_Danych/TIMES_STUDENTS_MID/SuppXLS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/IntegratedEnergyResourcePlanning-2024_2025_winter/Shared Documents/2024_2025_winter/Lab/TIMES_FULL_STUDENTS_2024/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{590CE17F-309E-49EB-BE33-E1D14360AE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B177AB3-395E-45C3-A9CE-98282B32DD5F}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D39AF31A-EE8D-4776-8CE8-1C4224F8B373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3451586E-3FB9-45A4-BA1D-BD27181AB918}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CO2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -57,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <r>
       <t>ETS CO</t>
@@ -103,28 +106,47 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Cset_CN</t>
-  </si>
-  <si>
     <t>\I: Attribute</t>
   </si>
   <si>
+    <t>Emission Cost [MPLN/kt]</t>
+  </si>
+  <si>
     <t>Commodity Set: Commodity Name</t>
   </si>
   <si>
+    <t>Z ENTSO</t>
+  </si>
+  <si>
     <t>COM_TAXNET</t>
   </si>
   <si>
     <t>CO2</t>
   </si>
   <si>
-    <t>Source: CAKE KOBiZE</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>Emission Cost [MPLN/kt]</t>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>CO2 price</t>
+  </si>
+  <si>
+    <t>€/ton</t>
+  </si>
+  <si>
+    <t>dla 2023 trzeba znaleźć</t>
+  </si>
+  <si>
+    <t>Source: 2023 https://www.eea.europa.eu/en/analysis/indicators/use-of-auctioning-revenues-generated
+later: ENTSO-E</t>
+  </si>
+  <si>
+    <t>AllRegions</t>
+  </si>
+  <si>
+    <t>CSet_CN</t>
   </si>
 </sst>
 </file>
@@ -135,13 +157,30 @@
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -210,8 +249,28 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,8 +307,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF548235"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -360,42 +431,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="11" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,141 +504,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>608542</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>470958</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>132292</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Prostokąt: zaokrąglone rogi 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62EB209-4DDC-54D1-5CE3-77FC2B15DF53}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2428875" y="2719917"/>
-          <a:ext cx="1889125" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1100"/>
-            <a:t>Year '0' is for setting </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>non-dafault</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1100"/>
-            <a:t> inter/extrapolation option</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>645584</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Łącznik prosty ze strzałką 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F3FEF4-DE71-80EF-5F09-E1910419E956}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1820333" y="2248958"/>
-          <a:ext cx="645584" cy="534459"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -833,124 +793,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E15"/>
+  <dimension ref="B1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.4">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+    <row r="3" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="C6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="2:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>6</v>
+    <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2023</v>
+      </c>
+      <c r="D7" s="13">
+        <f>83/1000*4.5</f>
+        <v>0.3735</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0.10625</v>
-      </c>
-      <c r="E7" s="7" t="s">
+    <row r="8" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="C8" s="8">
         <v>2030</v>
       </c>
       <c r="D8" s="14">
-        <v>0.44800000000000001</v>
+        <f>(113.4/1000)*4.5</f>
+        <v>0.51029999999999998</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="17">
+        <v>2030</v>
+      </c>
+      <c r="M8" s="17">
+        <v>2040</v>
+      </c>
+      <c r="N8" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="C9" s="9">
         <v>2040</v>
       </c>
       <c r="D9" s="15">
-        <v>0.89600000000000002</v>
+        <f>147/1000*4.5</f>
+        <v>0.66149999999999998</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="20">
+        <v>113.4</v>
+      </c>
+      <c r="M9" s="20">
+        <v>147</v>
+      </c>
+      <c r="N9" s="20">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="C10" s="8">
         <v>2050</v>
       </c>
       <c r="D10" s="14">
-        <v>1.792</v>
+        <f>168/1000*4.5</f>
+        <v>0.75600000000000001</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="10" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="10" t="s">
-        <v>7</v>
       </c>
       <c r="C11" s="10">
         <v>0</v>
@@ -959,47 +958,34 @@
         <v>5</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="6" t="s">
-        <v>9</v>
-      </c>
+    <row r="13" spans="2:14" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="B13:E13"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a0111623235845aab2bc86c0e7049642">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f9f4b9a3337047529e19b1dde5d7862c" ns2:_="" ns3:_="">
-    <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <xsd:import namespace="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
+    <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1008,14 +994,8 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1023,7 +1003,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="95645557-b925-4e14-b9c3-bb0dccab904e" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -1036,59 +1016,15 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="16" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="17" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="12" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{934fa774-6324-4670-aa1a-daa689219115}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="0be4b9af-ad17-4489-a21e-b8b210aeb5f9">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -1190,7 +1126,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{870260D1-F146-4968-9557-2639B59C68C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1198,19 +1167,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82319D87-9F89-465F-A992-21F87A25DE83}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15673D45-65DA-4457-951F-0E5A12740CEA}"/>
 </file>